--- a/Controller/ControllerData.xlsx
+++ b/Controller/ControllerData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>TCID</t>
   </si>
@@ -52,16 +52,10 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>Demo2</t>
+    <t>com.wmc.smoke.Tests.UserDefinedTest</t>
   </si>
   <si>
     <t>second</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SeleniumOne.SeleniumOne.UserDefinedTest</t>
   </si>
 </sst>
 </file>
@@ -446,7 +440,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -507,16 +501,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
